--- a/data/plant-size.xlsx
+++ b/data/plant-size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganghe/Documents/GitHub/solar-learning-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183FAD92-B142-2346-8892-5885218BC49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421952FC-FAF4-D848-932C-7E0ACBFBF5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
